--- a/natmiOut/OldD2/LR-pairs_lrc2p/Slit2-Robo4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Slit2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>Robo4</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H2">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I2">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J2">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.2397564608694</v>
+        <v>64.3542805</v>
       </c>
       <c r="N2">
-        <v>64.2397564608694</v>
+        <v>128.708561</v>
       </c>
       <c r="O2">
-        <v>0.6463041687137466</v>
+        <v>0.6389470558360469</v>
       </c>
       <c r="P2">
-        <v>0.6463041687137466</v>
+        <v>0.5413393761575827</v>
       </c>
       <c r="Q2">
-        <v>4.585387121969874</v>
+        <v>8.107255725969249</v>
       </c>
       <c r="R2">
-        <v>4.585387121969874</v>
+        <v>32.429022903877</v>
       </c>
       <c r="S2">
-        <v>0.03643806795912189</v>
+        <v>0.04781219991662874</v>
       </c>
       <c r="T2">
-        <v>0.03643806795912189</v>
+        <v>0.03081942112144405</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +590,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H3">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I3">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J3">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>35.1557906678413</v>
+        <v>0.03297533333333334</v>
       </c>
       <c r="N3">
-        <v>35.1557906678413</v>
+        <v>0.098926</v>
       </c>
       <c r="O3">
-        <v>0.3536958312862533</v>
+        <v>0.0003273984571787046</v>
       </c>
       <c r="P3">
-        <v>0.3536958312862533</v>
+        <v>0.00041607596813832</v>
       </c>
       <c r="Q3">
-        <v>2.509394784041286</v>
+        <v>0.004154183030333334</v>
       </c>
       <c r="R3">
-        <v>2.509394784041286</v>
+        <v>0.024925098182</v>
       </c>
       <c r="S3">
-        <v>0.01994106391564187</v>
+        <v>2.449911983167623E-05</v>
       </c>
       <c r="T3">
-        <v>0.01994106391564187</v>
+        <v>2.368795074835755E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.711962846236912</v>
+        <v>0.1259785</v>
       </c>
       <c r="H4">
-        <v>0.711962846236912</v>
+        <v>0.251957</v>
       </c>
       <c r="I4">
-        <v>0.5623459786015482</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J4">
-        <v>0.5623459786015482</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>64.2397564608694</v>
+        <v>0.03088066666666667</v>
       </c>
       <c r="N4">
-        <v>64.2397564608694</v>
+        <v>0.092642</v>
       </c>
       <c r="O4">
-        <v>0.6463041687137466</v>
+        <v>0.0003066013774937787</v>
       </c>
       <c r="P4">
-        <v>0.6463041687137466</v>
+        <v>0.0003896458953184223</v>
       </c>
       <c r="Q4">
-        <v>45.73631985144663</v>
+        <v>0.003890300065666667</v>
       </c>
       <c r="R4">
-        <v>45.73631985144663</v>
+        <v>0.023341800394</v>
       </c>
       <c r="S4">
-        <v>0.363446550229592</v>
+        <v>2.294288113788235E-05</v>
       </c>
       <c r="T4">
-        <v>0.363446550229592</v>
+        <v>2.218323932261832E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.711962846236912</v>
+        <v>0.1259785</v>
       </c>
       <c r="H5">
-        <v>0.711962846236912</v>
+        <v>0.251957</v>
       </c>
       <c r="I5">
-        <v>0.5623459786015482</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J5">
-        <v>0.5623459786015482</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.1557906678413</v>
+        <v>36.25707166666667</v>
       </c>
       <c r="N5">
-        <v>35.1557906678413</v>
+        <v>108.771215</v>
       </c>
       <c r="O5">
-        <v>0.3536958312862533</v>
+        <v>0.3599814808690655</v>
       </c>
       <c r="P5">
-        <v>0.3536958312862533</v>
+        <v>0.4574842668934998</v>
       </c>
       <c r="Q5">
-        <v>25.02961678558536</v>
+        <v>4.567611502959167</v>
       </c>
       <c r="R5">
-        <v>25.02961678558536</v>
+        <v>27.405669017755</v>
       </c>
       <c r="S5">
-        <v>0.1988994283719562</v>
+        <v>0.02693729687364312</v>
       </c>
       <c r="T5">
-        <v>0.1988994283719562</v>
+        <v>0.02604539942744082</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0706041221358726</v>
+        <v>0.1259785</v>
       </c>
       <c r="H6">
-        <v>0.0706041221358726</v>
+        <v>0.251957</v>
       </c>
       <c r="I6">
-        <v>0.05576687655213495</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J6">
-        <v>0.05576687655213495</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>64.2397564608694</v>
+        <v>0.044061</v>
       </c>
       <c r="N6">
-        <v>64.2397564608694</v>
+        <v>0.08812200000000001</v>
       </c>
       <c r="O6">
-        <v>0.6463041687137466</v>
+        <v>0.0004374634602152387</v>
       </c>
       <c r="P6">
-        <v>0.6463041687137466</v>
+        <v>0.0003706350854606983</v>
       </c>
       <c r="Q6">
-        <v>4.535591611141934</v>
+        <v>0.0055507386885</v>
       </c>
       <c r="R6">
-        <v>4.535591611141934</v>
+        <v>0.022202954754</v>
       </c>
       <c r="S6">
-        <v>0.0360423647917897</v>
+        <v>3.273524813204274E-05</v>
       </c>
       <c r="T6">
-        <v>0.0360423647917897</v>
+        <v>2.110091983752264E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0706041221358726</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H7">
-        <v>0.0706041221358726</v>
+        <v>2.524493</v>
       </c>
       <c r="I7">
-        <v>0.05576687655213495</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J7">
-        <v>0.05576687655213495</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.1557906678413</v>
+        <v>64.3542805</v>
       </c>
       <c r="N7">
-        <v>35.1557906678413</v>
+        <v>128.708561</v>
       </c>
       <c r="O7">
-        <v>0.3536958312862533</v>
+        <v>0.6389470558360469</v>
       </c>
       <c r="P7">
-        <v>0.3536958312862533</v>
+        <v>0.5413393761575827</v>
       </c>
       <c r="Q7">
-        <v>2.482143738095437</v>
+        <v>54.15397688076217</v>
       </c>
       <c r="R7">
-        <v>2.482143738095437</v>
+        <v>324.923861284573</v>
       </c>
       <c r="S7">
-        <v>0.01972451176034524</v>
+        <v>0.3193708027008044</v>
       </c>
       <c r="T7">
-        <v>0.01972451176034524</v>
+        <v>0.308796393373225</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.412112151961089</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H8">
-        <v>0.412112151961089</v>
+        <v>2.524493</v>
       </c>
       <c r="I8">
-        <v>0.325508012971553</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J8">
-        <v>0.325508012971553</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>64.2397564608694</v>
+        <v>0.03297533333333334</v>
       </c>
       <c r="N8">
-        <v>64.2397564608694</v>
+        <v>0.098926</v>
       </c>
       <c r="O8">
-        <v>0.6463041687137466</v>
+        <v>0.0003273984571787046</v>
       </c>
       <c r="P8">
-        <v>0.6463041687137466</v>
+        <v>0.00041607596813832</v>
       </c>
       <c r="Q8">
-        <v>26.47398427654516</v>
+        <v>0.02774866605755556</v>
       </c>
       <c r="R8">
-        <v>26.47398427654516</v>
+        <v>0.249737994518</v>
       </c>
       <c r="S8">
-        <v>0.210377185733243</v>
+        <v>0.000163646591868792</v>
       </c>
       <c r="T8">
-        <v>0.210377185733243</v>
+        <v>0.0002373423474980787</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.412112151961089</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H9">
-        <v>0.412112151961089</v>
+        <v>2.524493</v>
       </c>
       <c r="I9">
-        <v>0.325508012971553</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J9">
-        <v>0.325508012971553</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>35.1557906678413</v>
+        <v>0.03088066666666667</v>
       </c>
       <c r="N9">
-        <v>35.1557906678413</v>
+        <v>0.092642</v>
       </c>
       <c r="O9">
-        <v>0.3536958312862533</v>
+        <v>0.0003066013774937787</v>
       </c>
       <c r="P9">
-        <v>0.3536958312862533</v>
+        <v>0.0003896458953184223</v>
       </c>
       <c r="Q9">
-        <v>14.48812854601765</v>
+        <v>0.02598600894511111</v>
       </c>
       <c r="R9">
-        <v>14.48812854601765</v>
+        <v>0.233874080506</v>
       </c>
       <c r="S9">
-        <v>0.11513082723831</v>
+        <v>0.0001532513956281324</v>
       </c>
       <c r="T9">
-        <v>0.11513082723831</v>
+        <v>0.0002222658326114167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8414976666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.524493</v>
+      </c>
+      <c r="I10">
+        <v>0.4998392273408559</v>
+      </c>
+      <c r="J10">
+        <v>0.570430319636189</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>36.25707166666667</v>
+      </c>
+      <c r="N10">
+        <v>108.771215</v>
+      </c>
+      <c r="O10">
+        <v>0.3599814808690655</v>
+      </c>
+      <c r="P10">
+        <v>0.4574842668934998</v>
+      </c>
+      <c r="Q10">
+        <v>30.51024120766611</v>
+      </c>
+      <c r="R10">
+        <v>274.592170868995</v>
+      </c>
+      <c r="S10">
+        <v>0.1799328652546108</v>
+      </c>
+      <c r="T10">
+        <v>0.2609628965925866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.8414976666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.524493</v>
+      </c>
+      <c r="I11">
+        <v>0.4998392273408559</v>
+      </c>
+      <c r="J11">
+        <v>0.570430319636189</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.044061</v>
+      </c>
+      <c r="N11">
+        <v>0.08812200000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.0004374634602152387</v>
+      </c>
+      <c r="P11">
+        <v>0.0003706350854606983</v>
+      </c>
+      <c r="Q11">
+        <v>0.037077228691</v>
+      </c>
+      <c r="R11">
+        <v>0.222463372146</v>
+      </c>
+      <c r="S11">
+        <v>0.0002186613979438422</v>
+      </c>
+      <c r="T11">
+        <v>0.0002114214902677324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.010485</v>
+      </c>
+      <c r="H12">
+        <v>0.031455</v>
+      </c>
+      <c r="I12">
+        <v>0.006227960582979085</v>
+      </c>
+      <c r="J12">
+        <v>0.007107520481996314</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>64.3542805</v>
+      </c>
+      <c r="N12">
+        <v>128.708561</v>
+      </c>
+      <c r="O12">
+        <v>0.6389470558360469</v>
+      </c>
+      <c r="P12">
+        <v>0.5413393761575827</v>
+      </c>
+      <c r="Q12">
+        <v>0.6747546310425</v>
+      </c>
+      <c r="R12">
+        <v>4.048527786255</v>
+      </c>
+      <c r="S12">
+        <v>0.003979337078357437</v>
+      </c>
+      <c r="T12">
+        <v>0.003847580703751126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.010485</v>
+      </c>
+      <c r="H13">
+        <v>0.031455</v>
+      </c>
+      <c r="I13">
+        <v>0.006227960582979085</v>
+      </c>
+      <c r="J13">
+        <v>0.007107520481996314</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.098926</v>
+      </c>
+      <c r="O13">
+        <v>0.0003273984571787046</v>
+      </c>
+      <c r="P13">
+        <v>0.00041607596813832</v>
+      </c>
+      <c r="Q13">
+        <v>0.00034574637</v>
+      </c>
+      <c r="R13">
+        <v>0.00311171733</v>
+      </c>
+      <c r="S13">
+        <v>2.039024686237138E-06</v>
+      </c>
+      <c r="T13">
+        <v>2.957268465609555E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.010485</v>
+      </c>
+      <c r="H14">
+        <v>0.031455</v>
+      </c>
+      <c r="I14">
+        <v>0.006227960582979085</v>
+      </c>
+      <c r="J14">
+        <v>0.007107520481996314</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.092642</v>
+      </c>
+      <c r="O14">
+        <v>0.0003066013774937787</v>
+      </c>
+      <c r="P14">
+        <v>0.0003896458953184223</v>
+      </c>
+      <c r="Q14">
+        <v>0.00032378379</v>
+      </c>
+      <c r="R14">
+        <v>0.00291405411</v>
+      </c>
+      <c r="S14">
+        <v>1.909501293718345E-06</v>
+      </c>
+      <c r="T14">
+        <v>2.769416181701478E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.010485</v>
+      </c>
+      <c r="H15">
+        <v>0.031455</v>
+      </c>
+      <c r="I15">
+        <v>0.006227960582979085</v>
+      </c>
+      <c r="J15">
+        <v>0.007107520481996314</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>36.25707166666667</v>
+      </c>
+      <c r="N15">
+        <v>108.771215</v>
+      </c>
+      <c r="O15">
+        <v>0.3599814808690655</v>
+      </c>
+      <c r="P15">
+        <v>0.4574842668934998</v>
+      </c>
+      <c r="Q15">
+        <v>0.380155396425</v>
+      </c>
+      <c r="R15">
+        <v>3.421398567825</v>
+      </c>
+      <c r="S15">
+        <v>0.002241950473454979</v>
+      </c>
+      <c r="T15">
+        <v>0.003251578797136618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.010485</v>
+      </c>
+      <c r="H16">
+        <v>0.031455</v>
+      </c>
+      <c r="I16">
+        <v>0.006227960582979085</v>
+      </c>
+      <c r="J16">
+        <v>0.007107520481996314</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.044061</v>
+      </c>
+      <c r="N16">
+        <v>0.08812200000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0004374634602152387</v>
+      </c>
+      <c r="P16">
+        <v>0.0003706350854606983</v>
+      </c>
+      <c r="Q16">
+        <v>0.000461979585</v>
+      </c>
+      <c r="R16">
+        <v>0.00277187751</v>
+      </c>
+      <c r="S16">
+        <v>2.724505186714146E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.634296461258368E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.206538</v>
+      </c>
+      <c r="H17">
+        <v>0.619614</v>
+      </c>
+      <c r="I17">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J17">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>64.3542805</v>
+      </c>
+      <c r="N17">
+        <v>128.708561</v>
+      </c>
+      <c r="O17">
+        <v>0.6389470558360469</v>
+      </c>
+      <c r="P17">
+        <v>0.5413393761575827</v>
+      </c>
+      <c r="Q17">
+        <v>13.291604385909</v>
+      </c>
+      <c r="R17">
+        <v>79.74962631545399</v>
+      </c>
+      <c r="S17">
+        <v>0.07838667825367557</v>
+      </c>
+      <c r="T17">
+        <v>0.07579128501586553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.206538</v>
+      </c>
+      <c r="H18">
+        <v>0.619614</v>
+      </c>
+      <c r="I18">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J18">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N18">
+        <v>0.098926</v>
+      </c>
+      <c r="O18">
+        <v>0.0003273984571787046</v>
+      </c>
+      <c r="P18">
+        <v>0.00041607596813832</v>
+      </c>
+      <c r="Q18">
+        <v>0.006810659396</v>
+      </c>
+      <c r="R18">
+        <v>0.061295934564</v>
+      </c>
+      <c r="S18">
+        <v>4.016557755327096E-05</v>
+      </c>
+      <c r="T18">
+        <v>5.825353498808454E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.206538</v>
+      </c>
+      <c r="H19">
+        <v>0.619614</v>
+      </c>
+      <c r="I19">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J19">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.092642</v>
+      </c>
+      <c r="O19">
+        <v>0.0003066013774937787</v>
+      </c>
+      <c r="P19">
+        <v>0.0003896458953184223</v>
+      </c>
+      <c r="Q19">
+        <v>0.006378031132</v>
+      </c>
+      <c r="R19">
+        <v>0.057402280188</v>
+      </c>
+      <c r="S19">
+        <v>3.761417054859317E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.455314061385407E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.206538</v>
+      </c>
+      <c r="H20">
+        <v>0.619614</v>
+      </c>
+      <c r="I20">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J20">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>36.25707166666667</v>
+      </c>
+      <c r="N20">
+        <v>108.771215</v>
+      </c>
+      <c r="O20">
+        <v>0.3599814808690655</v>
+      </c>
+      <c r="P20">
+        <v>0.4574842668934998</v>
+      </c>
+      <c r="Q20">
+        <v>7.488463067890001</v>
+      </c>
+      <c r="R20">
+        <v>67.39616761101001</v>
+      </c>
+      <c r="S20">
+        <v>0.04416289622188312</v>
+      </c>
+      <c r="T20">
+        <v>0.06405098536986199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.206538</v>
+      </c>
+      <c r="H21">
+        <v>0.619614</v>
+      </c>
+      <c r="I21">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J21">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.044061</v>
+      </c>
+      <c r="N21">
+        <v>0.08812200000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0004374634602152387</v>
+      </c>
+      <c r="P21">
+        <v>0.0003706350854606983</v>
+      </c>
+      <c r="Q21">
+        <v>0.009100270818</v>
+      </c>
+      <c r="R21">
+        <v>0.054601624908</v>
+      </c>
+      <c r="S21">
+        <v>5.366846468798915E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.1891494755878E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4990375</v>
+      </c>
+      <c r="H22">
+        <v>0.998075</v>
+      </c>
+      <c r="I22">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J22">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>64.3542805</v>
+      </c>
+      <c r="N22">
+        <v>128.708561</v>
+      </c>
+      <c r="O22">
+        <v>0.6389470558360469</v>
+      </c>
+      <c r="P22">
+        <v>0.5413393761575827</v>
+      </c>
+      <c r="Q22">
+        <v>32.11519925501875</v>
+      </c>
+      <c r="R22">
+        <v>128.460797020075</v>
+      </c>
+      <c r="S22">
+        <v>0.1893980378865808</v>
+      </c>
+      <c r="T22">
+        <v>0.1220846959432969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4990375</v>
+      </c>
+      <c r="H23">
+        <v>0.998075</v>
+      </c>
+      <c r="I23">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J23">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.098926</v>
+      </c>
+      <c r="O23">
+        <v>0.0003273984571787046</v>
+      </c>
+      <c r="P23">
+        <v>0.00041607596813832</v>
+      </c>
+      <c r="Q23">
+        <v>0.01645592790833333</v>
+      </c>
+      <c r="R23">
+        <v>0.09873556745000001</v>
+      </c>
+      <c r="S23">
+        <v>9.704814323872828E-05</v>
+      </c>
+      <c r="T23">
+        <v>9.383486643818972E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4990375</v>
+      </c>
+      <c r="H24">
+        <v>0.998075</v>
+      </c>
+      <c r="I24">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J24">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.092642</v>
+      </c>
+      <c r="O24">
+        <v>0.0003066013774937787</v>
+      </c>
+      <c r="P24">
+        <v>0.0003896458953184223</v>
+      </c>
+      <c r="Q24">
+        <v>0.01541061069166667</v>
+      </c>
+      <c r="R24">
+        <v>0.09246366415</v>
+      </c>
+      <c r="S24">
+        <v>9.088342888545241E-05</v>
+      </c>
+      <c r="T24">
+        <v>8.787426658883177E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4990375</v>
+      </c>
+      <c r="H25">
+        <v>0.998075</v>
+      </c>
+      <c r="I25">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J25">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>36.25707166666667</v>
+      </c>
+      <c r="N25">
+        <v>108.771215</v>
+      </c>
+      <c r="O25">
+        <v>0.3599814808690655</v>
+      </c>
+      <c r="P25">
+        <v>0.4574842668934998</v>
+      </c>
+      <c r="Q25">
+        <v>18.09363840185417</v>
+      </c>
+      <c r="R25">
+        <v>108.561830411125</v>
+      </c>
+      <c r="S25">
+        <v>0.1067064720454735</v>
+      </c>
+      <c r="T25">
+        <v>0.1031734067064737</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4990375</v>
+      </c>
+      <c r="H26">
+        <v>0.998075</v>
+      </c>
+      <c r="I26">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J26">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.044061</v>
+      </c>
+      <c r="N26">
+        <v>0.08812200000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0004374634602152387</v>
+      </c>
+      <c r="P26">
+        <v>0.0003706350854606983</v>
+      </c>
+      <c r="Q26">
+        <v>0.0219880912875</v>
+      </c>
+      <c r="R26">
+        <v>0.08795236515</v>
+      </c>
+      <c r="S26">
+        <v>0.0001296738442646505</v>
+      </c>
+      <c r="T26">
+        <v>8.358688413830697E-05</v>
       </c>
     </row>
   </sheetData>
